--- a/assets/data/20250502_trend_summary_en.xlsx
+++ b/assets/data/20250502_trend_summary_en.xlsx
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Innovation-driven development </t>
+          <t xml:space="preserve"> Artificial intelligence </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,24 +502,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases new science and technology innovation strategy for 2025-2030 focusing on self-reliance and breakthrough technologies </t>
+          <t xml:space="preserve"> China unveils new national AI laboratory network focusing on critical infrastructure protection and ethical guidelines. </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/28/WS6654a87ea310e7dd3fc8b28e.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3254891/china-launches-national-ai-laboratory-network-boost-research-critical-infrastructures </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology unveiled a comprehensive five-year strategy to accelerate innovation-driven development, emphasizing technological self-reliance in critical sectors. The plan outlines investment targets of 3.5% of GDP for R&amp;D by 2030, with specific focus on semiconductor manufacturing, quantum computing, and AI. The strategy introduces new funding mechanisms and streamlined approval processes for high-priority projects. </t>
+          <t xml:space="preserve"> The Chinese Ministry of Science and Technology announced the establishment of a national AI laboratory network with 15 specialized facilities. The network aims to address security challenges in critical infrastructure and implement China's recently released ethical guidelines for AI. The initiative falls under China's 14th Five-Year Plan for AI development, emphasizing both innovation and responsible governance. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New quality productivity </t>
+          <t xml:space="preserve"> Innovation-driven development </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,24 +529,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council announces framework for developing "new quality productivity" emphasizing digital transformation and green manufacturing </t>
+          <t xml:space="preserve"> China releases comprehensive innovation-driven development strategy for 2025-2035, focusing on self-reliance in critical technologies. </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.www.gov.cn/policies/policywatch/202504/27/content_WS65db6ca1c6d0868f4e2b5e.html </t>
+          <t xml:space="preserve"> https://english.news.cn/20250428/a7c4e18bb5e645e9a8b1f2d19c3a7f82/c.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council released guidelines promoting "new quality productivity" as a core economic concept, focusing on high-tech manufacturing, digital transformation, and sustainable production methods. The framework prioritizes advanced manufacturing clusters, smart supply chains, and green technology integration. The document sets targets for 30% productivity increases in key sectors by 2028 through AI implementation and automation technologies. </t>
+          <t xml:space="preserve"> China's State Council published a new ten-year innovation strategy emphasizing technological self-reliance and indigenous innovation capabilities in semiconductors, advanced materials, and AI. The plan introduces a "2+X" framework with core technologies and supporting ecosystem development. It targets increasing R&amp;D spending to 3% of GDP by 2030 and addresses challenges including aging demographics and climate change. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology security policy </t>
+          <t xml:space="preserve"> New quality productivity </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,341 +556,341 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New national security framework for emerging technologies announced, balancing innovation with data protection </t>
+          <t xml:space="preserve"> Beijing unveils "New Quality Productivity" initiative with $150 billion investment in advanced manufacturing hubs across China. </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3266872/china-unveils-new-tech-security-framework-balance-innovation-national-security </t>
+          <t xml:space="preserve"> https://www.reuters.com/technology/china-announces-150-billion-new-quality-productivity-manufacturing-initiative-2025-04-30/ </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Security Commission released a comprehensive framework addressing technology security concerns while promoting innovation. The policy introduces a three-tiered classification system for technologies with national security implications, new data protection requirements for cross-border research collaboration, and enhanced review mechanisms for foreign investments in strategic tech sectors. Implementation will begin June 2025. </t>
+          <t xml:space="preserve"> China's National Development and Reform Commission announced a $150 billion initiative to establish 25 "New Quality Productivity" manufacturing hubs nationwide. The program aims to upgrade China's industrial base with advanced digital manufacturing capabilities, smart factories, and integrated supply chains. The first wave will focus on semiconductors, new energy vehicles, aerospace, and biotech sectors, creating an estimated 1.2 million high-skilled jobs. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence </t>
+          <t xml:space="preserve"> Quantum communication </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 </t>
+          <t xml:space="preserve"> 33 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches National AI Research Center with $2.8 billion initial funding to accelerate foundational AI research </t>
+          <t xml:space="preserve"> China claims "quantum advantage" breakthrough with nationwide quantum secure communication network reaching 100+ cities. </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01287-8 </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01234-z </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences established the National AI Research Center to coordinate advanced AI research across multiple institutions. The center received initial funding of $2.8 billion and will focus on fundamental AI algorithms, computing infrastructure, and ethical frameworks. The initiative aims to develop next-generation AI systems with enhanced reasoning capabilities while establishing China-led international standards for AI safety and governance. </t>
+          <t xml:space="preserve"> Chinese researchers reported a major breakthrough in quantum communication, extending their secure quantum network to over 100 cities nationwide. The network demonstrates "quantum advantage" in secure communications using entangled photons, making it theoretically immune to conventional hacking methods. This expansion represents the world's largest functional quantum communication infrastructure, with plans to extend services to Southeast Asia through the Digital Silk Road initiative. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum communication </t>
+          <t xml:space="preserve"> Science and technology security policy </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes intercontinental quantum network backbone connecting Beijing, Shanghai, and Hong Kong </t>
+          <t xml:space="preserve"> China introduces comprehensive Science and Technology Security Framework with new export controls on AI chipsets and quantum technologies. </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1302875.shtml </t>
+          <t xml:space="preserve"> https://www.bloomberg.com/news/articles/2025-04-29/china-announces-new-tech-export-controls-eyeing-security-reciprocity </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announced the completion of a major quantum communication network spanning Beijing, Shanghai, and Hong Kong, representing a significant advancement in secure communications infrastructure. The network employs quantum key distribution technology immune to traditional hacking methods and can support encrypted government and financial communications. International extensions to BRI partner countries are planned for 2026-2027. The project demonstrates China's lead in practical quantum technology applications. </t>
+          <t xml:space="preserve"> The Chinese Commerce Ministry announced expanded export controls covering advanced AI chipsets, quantum computing components, and biotechnology research materials. The measures, part of China's new Science and Technology Security Framework, aim to protect national security while promoting "fair and reciprocal" technology cooperation. The policy reflects growing concerns about technology containment strategies by Western nations and emphasizes the protection of critical indigenous innovations. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital economy policy </t>
+          <t xml:space="preserve"> Integration of industry, academia and research </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases "Digital Economy Advancement Plan 2025-2030" targeting 45% digital economy contribution to GDP </t>
+          <t xml:space="preserve"> China launches 50 new industry-academia-research centers with reformed intellectual property sharing mechanisms. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cnbc.com/2025/04/30/china-digital-economy-plan-targets-45percent-gdp-contribution-by-2030.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/28/WS660bc21a310dbb0113778e4.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council published a comprehensive digital economy development plan targeting 45% digital economy contribution to GDP by 2030, up from 38.6% currently. The plan introduces tax incentives for digital infrastructure investments, streamlines regulatory requirements for digital startups, and establishes five new digital economy pilot zones. Special emphasis is placed on industrial internet applications, digital currency expansion, and rural digitalization initiatives. </t>
+          <t xml:space="preserve"> The Ministry of Education and Ministry of Industry and Information Technology jointly established 50 new integrated industry-academia-research centers across key universities and industrial parks. The initiative features reformed intellectual property sharing mechanisms allowing more equitable distribution of benefits between researchers and commercial partners. The centers will focus on semiconductors, advanced manufacturing, and renewable energy technologies, with streamlined approval processes for joint research projects. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor packaging </t>
+          <t xml:space="preserve"> Digital economy policy </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 </t>
+          <t xml:space="preserve"> 27 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announces $15 billion fund for advanced semiconductor packaging to reduce foreign dependencies </t>
+          <t xml:space="preserve"> China releases Digital Economy Development White Paper targeting 45% digital contribution to GDP by 2030. </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-unveils-15bn-fund-for-advanced-chip-packaging-technologies </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1309875.shtml </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Integrated Circuit Industry Investment Fund announced $15 billion dedicated to advanced semiconductor packaging technologies. The funding prioritizes 2.5D and 3D packaging technologies, chiplet integration methods, and advanced materials research. The initiative aims to address bottlenecks in China's semiconductor supply chain while reducing dependencies on foreign technologies. The fund will support both state-owned enterprises and private companies through direct investments and subsidies. </t>
+          <t xml:space="preserve"> China's State Council Information Office published a comprehensive Digital Economy Development White Paper outlining plans to increase the digital economy's contribution to GDP from current 41% to 45% by 2030. The policy framework emphasizes cross-border data governance, digital infrastructure investment, and international standard-setting in emerging technologies. It introduces a "digital sovereignty with openness" approach that balances domestic control with international engagement. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strategic emerging industries </t>
+          <t xml:space="preserve"> Semiconductor packaging </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 26 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council designates seven new strategic emerging industry clusters with specialized regulatory frameworks </t>
+          <t xml:space="preserve"> China achieves breakthrough in advanced semiconductor packaging with new heterogeneous integration technique for AI chips. </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.reuters.com/world/china/china-designates-seven-new-strategic-emerging-industry-clusters-2025-04-29/ </t>
+          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-claims-breakthrough-in-advanced-chip-packaging-technology </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council designated seven new strategic emerging industry clusters with specialized regulatory frameworks and financial support. The designated areas include quantum technology in Hefei, aerospace in Xi'an, biotechnology in Shenzhen, new energy vehicles in Shanghai, advanced materials in Wuhan, integrated circuits in Suzhou, and artificial intelligence in Beijing. Each cluster will receive customized policy support, tax incentives, and streamlined approval processes to accelerate development. </t>
+          <t xml:space="preserve"> Chinese researchers from the Chinese Academy of Sciences announced a breakthrough in advanced semiconductor packaging technology, developing a new heterogeneous integration technique for AI chips. The method allows for stacking specialized chiplets with significantly improved performance and energy efficiency compared to traditional packaging. This development potentially bypasses some restrictions on advanced chip manufacturing while advancing China's semiconductor self-sufficiency goals. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology development plan </t>
+          <t xml:space="preserve"> Science and technology innovation policy </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 25 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's 14th Five-Year Plan mid-term review shows 75% completion of science and technology targets </t>
+          <t xml:space="preserve"> China updates national science and technology innovation policy with 10-year roadmap and increased basic research funding. </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/economy/china-economy/article/3300548/china-science-technology-targets-track-says-ndrc </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/30/WS661cb9453a2b0ad6b3b952e.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission released a mid-term review of the 14th Five-Year Plan's science and technology components, indicating 75% of targets have been met or exceeded. The review highlights significant progress in quantum computing, AI applications, and biotechnology, while noting continued challenges in semiconductor manufacturing and original theoretical research. The report announces minor adjustments to remaining targets and additional support measures for underperforming areas. </t>
+          <t xml:space="preserve"> China's State Council released an updated national science and technology innovation policy with a 10-year roadmap prioritizing seven strategic technology areas. The plan increases basic research funding to 12% of total R&amp;D expenditure and introduces a "Basic Research+" initiative linking fundamental science to industrial applications. The policy reforms evaluation systems for scientists, emphasizing quality over quantity of research outputs, and streamlines international collaboration mechanisms. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Transformation of scientific and technological achievements </t>
+          <t xml:space="preserve"> Strategic emerging industries </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New law on transformation of scientific achievements streamlines technology transfer from research institutions to industry </t>
+          <t xml:space="preserve"> China designates six new strategic emerging industries with $200 billion development fund focusing on future materials. </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/25/WS65a8c321a310e7dd3fc8b18c.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/economy/article/3254921/china-designates-six-new-strategic-industries-200-billion-development-fund </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Standing Committee of the National People's Congress passed a revised Law on Promoting the Transformation of Scientific and Technological Achievements, effective October 1, 2025. The law introduces significant reforms to intellectual property rights for researchers, establishes a market-oriented pricing mechanism for technology transfers, simplifies approval procedures, and creates special technology transfer courts. Universities and research institutes will have greater autonomy in commercializing research outputs. </t>
+          <t xml:space="preserve"> China's National Development and Reform Commission announced six new strategic emerging industries: future materials, quantum information, genetic technology, future networks, low-altitude economy, and hydrogen energy. A $200 billion development fund will support these sectors, with future materials receiving the largest allocation. The initiative aims to cultivate industries with an estimated combined value of 35 trillion yuan by 2030 and achieve technological leadership in at least three sectors. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National innovation system </t>
+          <t xml:space="preserve"> Hydrogen energy storage </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21 </t>
+          <t xml:space="preserve"> 23 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes "Three-in-One" national innovation system coordinating government, industry and academia </t>
+          <t xml:space="preserve"> China launches world's largest hydrogen energy storage facility with 100MW capacity in Inner Mongolia. </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.www.gov.cn/news/topnews/202504/27/content_WS65aa123cc6d0868ae5a5e8.html </t>
+          <t xml:space="preserve"> https://www.reuters.com/business/energy/china-launches-worlds-largest-hydrogen-energy-storage-project-2025-04-27/ </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council announced a new "Three-in-One" national innovation system framework to strengthen coordination between government, industry, and academia. The system introduces joint governance mechanisms, shared research facilities, and integrated funding streams. Key features include cross-sector expert committees to guide research priorities, standardized data sharing protocols, and harmonized evaluation metrics across different types of institutions. Initial implementation will focus on strategic technologies such as quantum computing and biotechnology. </t>
+          <t xml:space="preserve"> China completed the world's largest hydrogen energy storage facility in Inner Mongolia with 100MW capacity, designed to store renewable energy from wind and solar sources. The project uses electrolysis technology to convert excess renewable energy into hydrogen, which can be stored and later converted back to electricity during peak demand periods. The facility marks a significant advancement in China's energy storage capabilities and supports its dual carbon goals. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solid-state batteries </t>
+          <t xml:space="preserve"> Science and technology system reform </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's first industrial-scale solid-state battery production line opens in Guangdong with 5GWh capacity </t>
+          <t xml:space="preserve"> China announces major science and technology system reform emphasizing researcher autonomy and reducing administrative burdens. </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://cnevpost.com/2025/04/26/chinas-first-industrial-scale-solid-state-battery-line-begins-operation/ </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01245-9 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's first industrial-scale solid-state battery production line began operations in Guangdong, with 5GWh annual capacity. The facility, jointly developed by CATL and Guangdong provincial government, produces high-energy-density batteries with silicon-carbon anodes and solid electrolytes, achieving 400Wh/kg energy density. These batteries target electric vehicle applications with claims of 1,000km range and improved safety over conventional lithium-ion batteries. Mass production vehicles using these batteries are expected by early 2026. </t>
+          <t xml:space="preserve"> The Chinese Academy of Sciences unveiled a major reform of its research system, giving scientists greater autonomy over research directions and reducing administrative burdens. The reforms include a new "PI responsibility system" with expanded budget control for principal investigators, simplified grant application procedures, and reformed evaluation criteria focusing on breakthrough innovations rather than publication metrics. The changes aim to address long-standing bureaucratic inefficiencies in China's research ecosystem. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence laboratory </t>
+          <t xml:space="preserve"> Low-carbon energy research and development </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China-EU joint AI safety laboratory established in Shanghai focusing on explainable and trustworthy AI </t>
+          <t xml:space="preserve"> China establishes International Low-Carbon Energy R&amp;D Alliance with 15 countries to accelerate clean energy transitions. </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ft.com/content/3a9bdc5e-e4c1-4b2e-9fc1-d562ce4a3ef2 </t>
+          <t xml:space="preserve"> https://english.news.cn/20250501/c982e5a78cd48a9bb5e7f219def71c3/c.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and the European Union established a joint AI Safety Laboratory in Shanghai, focusing on explainable AI, bias mitigation, and trustworthy AI principles. The laboratory involves researchers from Chinese universities, European institutions, and industry partners from both regions. The initiative represents a rare area of continued technological cooperation amid broader geopolitical tensions and will develop shared standards for AI safety evaluation and certification. Initial projects focus on healthcare and autonomous vehicle applications. </t>
+          <t xml:space="preserve"> China formed an International Low-Carbon Energy R&amp;D Alliance with 15 countries including members from Europe, Asia, and Africa. The alliance will coordinate research efforts, share technological advances, and jointly develop standards for various low-carbon technologies. Five collaborative research centers will be established focusing on advanced solar power, next-generation nuclear energy, sustainable hydrogen production, energy storage systems, and carbon capture utilization and storage technologies. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integration of industry, academia and research </t>
+          <t xml:space="preserve"> Artificial intelligence laboratory </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New national framework for industry-academia collaboration introduces dual appointment system for researchers </t>
+          <t xml:space="preserve"> China-Singapore Joint AI Laboratory opens in Shenzhen focusing on medical applications and large language models. </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3300421/china-unveils-new-measures-boost-tech-innovation-closer-ties-between-industry-academia </t>
+          <t xml:space="preserve"> https://www.straitstimes.com/asia/east-asia/china-singapore-joint-ai-laboratory-opens-in-shenzhen </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology and Ministry of Education jointly published a new framework to strengthen industry-academia-research integration. Key measures include a dual appointment system allowing researchers to work simultaneously in universities and companies, simplified IP sharing arrangements, joint training programs for graduate students, and tax incentives for enterprises investing in academic research. The policy aims to address the historical disconnect between research outputs and industrial applications. </t>
+          <t xml:space="preserve"> The China-Singapore Joint AI Laboratory officially opened in Shenzhen's International Science and Technology Innovation Center. The facility represents a $300 million investment from both governments and will focus on medical AI applications and large language models optimized for Southeast Asian languages. The laboratory features shared computing infrastructure and a talent exchange program allowing researchers from both countries to collaborate on projects meeting ethical AI standards of both nations. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hydrogen energy storage </t>
+          <t xml:space="preserve"> Industry-university-research cooperation </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China unveils national hydrogen energy storage roadmap with 10GW target by 2030 </t>
+          <t xml:space="preserve"> New industry-university-research cooperation mechanism introduced with revised IP sharing framework and technology transfer incentives. </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/29/WS65dbc543a310e4aabaab2c.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/27/WS66096a9a310dbb0113778c6.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Energy Administration released China's first national hydrogen energy storage roadmap, targeting 10GW of hydrogen storage capacity by 2030. The plan outlines a staged approach beginning with pilot projects in renewable-rich regions, followed by industrial-scale implementations. Key technologies prioritized include advanced electrolyzers, underground salt cavern storage, and innovative hydrogen carriers. The initiative aims to address intermittency challenges in China's growing renewable energy sector while creating new industrial opportunities. </t>
+          <t xml:space="preserve"> China's Ministry of Science and Technology introduced a new national framework for industry-university-research cooperation featuring revised intellectual property sharing guidelines and enhanced technology transfer incentives. The policy allows university researchers to retain up to 70% of benefits from commercialized technologies and establishes dedicated technology transfer offices at 100 universities. A streamlined approval process reduces bureaucratic barriers for joint projects, particularly in strategic sectors such as semiconductors and advanced manufacturing. </t>
         </is>
       </c>
     </row>
@@ -902,130 +902,130 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches open-access quantum computing cloud platform with 144-qubit processor </t>
+          <t xml:space="preserve"> China launches open-access quantum computing cloud platform with 156-qubit processor available to global researchers. </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1302884.shtml </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3254867/chinese-tech-giant-baidu-launches-156-qubit-quantum-computer-claiming-superior-performance </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences launched an open-access quantum computing cloud platform featuring a 144-qubit superconducting processor. The platform provides researchers and companies with quantum computing resources, programming interfaces, and collaborative tools. Unlike previous Chinese quantum computers, this platform offers significant access to international researchers, though with usage restrictions on sensitive applications. The initiative aims to accelerate practical quantum algorithm development while building a broader quantum computing ecosystem. </t>
+          <t xml:space="preserve"> A leading Chinese tech company launched an open-access quantum computing cloud platform featuring a 156-qubit processor available to researchers globally. The system claims superior performance metrics on certain quantum algorithms compared to competing systems. The platform provides development tools, educational resources, and simulation environments to accelerate quantum software innovation. While open to international researchers, data management policies comply with China's data security regulations. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technology transfer </t>
+          <t xml:space="preserve"> Biotechnology </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New international technology transfer centers established in ASEAN countries to boost China-Southeast Asia tech collaboration </t>
+          <t xml:space="preserve"> China updates biotechnology regulatory framework with streamlined approval process for gene therapy and synthetic biology. </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nationthailand.com/business/corporate/40034782 </t>
+          <t xml:space="preserve"> https://www.reuters.com/business/healthcare-pharmaceuticals/china-updates-biotech-regulatory-framework-accelerate-gene-therapy-approvals-2025-04-29/ </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's Ministry of Science and Technology established five new international technology transfer centers in Thailand, Vietnam, Indonesia, Malaysia, and Singapore to facilitate technological collaboration with ASEAN countries. The centers will provide legal support, technical training, and matchmaking services for companies and research institutions. Initial focus areas include agricultural technology, renewable energy, digital infrastructure, and healthcare innovations. The initiative represents a significant expansion of China's technology diplomacy in Southeast Asia. </t>
+          <t xml:space="preserve"> China's National Medical Products Administration released updated biotechnology regulations with streamlined approval processes for gene therapies and synthetic biology products. The framework introduces a new "parallel review" mechanism reducing approval times by up to 50% for breakthrough therapies. The regulations establish clear guidelines for CRISPR-based treatments while maintaining ethical oversight. Industry analysts project the changes could make China the world's largest gene therapy market by 2030. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart city </t>
+          <t xml:space="preserve"> High-end equipment manufacturing </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches second phase of national smart city initiative with focus on urban digital twins and integrated governance </t>
+          <t xml:space="preserve"> China unveils new high-end equipment manufacturing plan targeting aerospace, robotics, and advanced medical devices. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.xinhuanet.com/english/20240427/2874fc5a9e574f6e98a0642cd98afc6e/c.html </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1309825.shtml </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Housing and Urban-Rural Development launched the second phase of China's national smart city initiative, focusing on digital twin technologies and integrated urban governance platforms. The program will implement comprehensive urban sensing networks, real-time data integration systems, and predictive maintenance for infrastructure in 25 pilot cities. Key innovations include AI-powered traffic management, energy optimization systems, and integrated emergency response platforms. The initiative aims to establish Chinese standards for smart city technologies globally. </t>
+          <t xml:space="preserve"> China's Ministry of Industry and Information Technology released a high-end equipment manufacturing development plan focusing on aerospace systems, industrial robotics, and advanced medical devices. The initiative includes special funding mechanisms, tax incentives, and procurement preferences for domestically developed equipment. Ten manufacturing innovation centers will be established to bridge research-to-production gaps. The plan specifically emphasizes technologies where China currently depends on imports, with goals to achieve 75% self-sufficiency in these areas by 2030. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology ethics norms </t>
+          <t xml:space="preserve"> Talent introduction policy </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes national science and technology ethics committee with oversight of sensitive research areas </t>
+          <t xml:space="preserve"> China announces enhanced talent introduction policy with expanded visa program and $5 billion research fund for international scientists. </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01294-9 </t>
+          <t xml:space="preserve"> https://www.scmp.com/news/china/science/article/3254832/china-announces-enhanced-talent-introduction-policy-expanded-visa-program </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council announced the formation of a National Science and Technology Ethics Committee with regulatory authority over sensitive research areas including gene editing, brain-computer interfaces, and autonomous weapons systems. The committee introduces a mandatory ethics review system for high-risk research projects, standardized ethics training requirements for scientists, and whistleblower protections. The framework balances innovation needs with ethical considerations and harmonizes domestic standards with international norms. </t>
+          <t xml:space="preserve"> China unveiled an enhanced talent introduction strategy with significantly expanded visa programs and a $5 billion research fund specifically for international scientists. The policy introduces a new "Science and Technology Innovation Visa" with expedited processing and ten-year multi-entry options. Additional incentives include subsidized housing, school priority for dependents, and tax benefits for high-level researchers. The initiative targets 20,000 international experts in semiconductor design, quantum computing, AI, and advanced manufacturing within five years. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gene therapy </t>
+          <t xml:space="preserve"> Science and technology cooperation agreement </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China approves revolutionary gene therapy for beta-thalassemia with breakthrough one-time treatment approach </t>
+          <t xml:space="preserve"> China signs comprehensive science and technology cooperation agreements with Brazil and South Africa focusing on space technology and biomedical research. </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.fiercebiotech.com/biotech/china-approves-breakthrough-gene-therapy-beta-thalassemia </t>
+          <t xml:space="preserve"> https://english.news.cn/20250429/a45fc6ee98f94d99b37d3b0cf3f2b64/c.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Medical Products Administration approved a groundbreaking gene therapy for beta-thalassemia, a genetic blood disorder affecting thousands of Chinese patients. The therapy, developed by researchers at Peking Union Medical College and commercialized by a domestic biotech firm, uses CRISPR gene editing to restore normal hemoglobin production with a single treatment. Clinical trials showed 95% of patients achieving transfusion independence. The approval includes strict monitoring requirements and represents China's growing capabilities in advanced biological therapies. </t>
+          <t xml:space="preserve"> China signed new science and technology cooperation agreements with Brazil and South Africa, significantly expanding BRICS collaboration. The agreements focus on space technology sharing, including satellite development and earth observation systems, along with joint biomedical research programs targeting infectious diseases and cancer treatments. The partnerships establish shared laboratory facilities, simplified researcher exchange processes, and harmonized intellectual property frameworks. These agreements represent China's largest S&amp;T cooperation initiatives with Global South nations this year. </t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,51 +1085,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/28/WS6654a87ea310e7dd3fc8b28e.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3254891/china-launches-national-ai-laboratory-network-boost-research-critical-infrastructures </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 28, 2025 </t>
+          <t xml:space="preserve"> 2025-04-30 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Government Website </t>
+          <t xml:space="preserve"> Xinhua News Agency </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.www.gov.cn/policies/policywatch/202504/27/content_WS65db6ca1c6d0868f4e2b5e.html </t>
+          <t xml:space="preserve"> https://english.news.cn/20250428/a7c4e18bb5e645e9a8b1f2d19c3a7f82/c.html </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 27, 2025 </t>
+          <t xml:space="preserve"> 2025-04-28 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South China Morning Post </t>
+          <t xml:space="preserve"> Reuters Technology </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3266872/china-unveils-new-tech-security-framework-balance-innovation-national-security </t>
+          <t xml:space="preserve"> https://www.reuters.com/technology/china-announces-150-billion-new-quality-productivity-manufacturing-initiative-2025-04-30/ </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
+          <t xml:space="preserve"> 2025-04-30 </t>
         </is>
       </c>
     </row>
@@ -1141,182 +1141,182 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01287-8 </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01234-z </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> 2025-04-28 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Global Times </t>
+          <t xml:space="preserve"> Bloomberg News </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1302875.shtml </t>
+          <t xml:space="preserve"> https://www.bloomberg.com/news/articles/2025-04-29/china-announces-new-tech-export-controls-eyeing-security-reciprocity </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 28, 2025 </t>
+          <t xml:space="preserve"> 2025-04-29 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CNBC </t>
+          <t xml:space="preserve"> China Daily </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cnbc.com/2025/04/30/china-digital-economy-plan-targets-45percent-gdp-contribution-by-2030.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/28/WS660bc21a310dbb0113778e4.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
+          <t xml:space="preserve"> 2025-04-28 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nikkei Asia </t>
+          <t xml:space="preserve"> Global Times </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-unveils-15bn-fund-for-advanced-chip-packaging-technologies </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1309875.shtml </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 26, 2025 </t>
+          <t xml:space="preserve"> 2025-04-29 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reuters </t>
+          <t xml:space="preserve"> Nikkei Asia </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.reuters.com/world/china/china-designates-seven-new-strategic-emerging-industry-clusters-2025-04-29/ </t>
+          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-claims-breakthrough-in-advanced-chip-packaging-technology </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> 2025-04-28 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South China Morning Post </t>
+          <t xml:space="preserve"> China Daily </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/economy/china-economy/article/3300548/china-science-technology-targets-track-says-ndrc </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/30/WS661cb9453a2b0ad6b3b952e.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 27, 2025 </t>
+          <t xml:space="preserve"> 2025-04-30 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/25/WS65a8c321a310e7dd3fc8b18c.html </t>
+          <t xml:space="preserve"> https://www.scmp.com/economy/article/3254921/china-designates-six-new-strategic-industries-200-billion-development-fund </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 25, 2025 </t>
+          <t xml:space="preserve"> 2025-04-29 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Government Website </t>
+          <t xml:space="preserve"> Reuters Energy </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.www.gov.cn/news/topnews/202504/27/content_WS65aa123cc6d0868ae5a5e8.html </t>
+          <t xml:space="preserve"> https://www.reuters.com/business/energy/china-launches-worlds-largest-hydrogen-energy-storage-project-2025-04-27/ </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 27, 2025 </t>
+          <t xml:space="preserve"> 2025-04-27 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CNEVPost </t>
+          <t xml:space="preserve"> Nature </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://cnevpost.com/2025/04/26/chinas-first-industrial-scale-solid-state-battery-line-begins-operation/ </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01245-9 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 26, 2025 </t>
+          <t xml:space="preserve"> 2025-04-29 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Financial Times </t>
+          <t xml:space="preserve"> Xinhua News Agency </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ft.com/content/3a9bdc5e-e4c1-4b2e-9fc1-d562ce4a3ef2 </t>
+          <t xml:space="preserve"> https://english.news.cn/20250501/c982e5a78cd48a9bb5e7f219def71c3/c.html </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 28, 2025 </t>
+          <t xml:space="preserve"> 2025-05-01 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South China Morning Post </t>
+          <t xml:space="preserve"> The Straits Times </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3300421/china-unveils-new-measures-boost-tech-innovation-closer-ties-between-industry-academia </t>
+          <t xml:space="preserve"> https://www.straitstimes.com/asia/east-asia/china-singapore-joint-ai-laboratory-opens-in-shenzhen </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 26, 2025 </t>
+          <t xml:space="preserve"> 2025-04-30 </t>
         </is>
       </c>
     </row>
@@ -1328,267 +1328,97 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/29/WS65dbc543a310e4aabaab2c.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/27/WS66096a9a310dbb0113778c6.html </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> 2025-04-27 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Global Times </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1302884.shtml </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3254867/chinese-tech-giant-baidu-launches-156-qubit-quantum-computer-claiming-superior-performance </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> 2025-04-28 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Nation Thailand </t>
+          <t xml:space="preserve"> Reuters Healthcare </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nationthailand.com/business/corporate/40034782 </t>
+          <t xml:space="preserve"> https://www.reuters.com/business/healthcare-pharmaceuticals/china-updates-biotech-regulatory-framework-accelerate-gene-therapy-approvals-2025-04-29/ </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 26, 2025 </t>
+          <t xml:space="preserve"> 2025-04-29 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News </t>
+          <t xml:space="preserve"> Global Times </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.xinhuanet.com/english/20240427/2874fc5a9e574f6e98a0642cd98afc6e/c.html </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1309825.shtml </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 27, 2025 </t>
+          <t xml:space="preserve"> 2025-04-28 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nature </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01294-9 </t>
+          <t xml:space="preserve"> https://www.scmp.com/news/china/science/article/3254832/china-announces-enhanced-talent-introduction-policy-expanded-visa-program </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
+          <t xml:space="preserve"> 2025-04-27 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fierce Biotech </t>
+          <t xml:space="preserve"> Xinhua News Agency </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.fiercebiotech.com/biotech/china-approves-breakthrough-gene-therapy-beta-thalassemia </t>
+          <t xml:space="preserve"> https://english.news.cn/20250429/a45fc6ee98f94d99b37d3b0cf3f2b64/c.html </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 25, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Science </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.science.org/content/article/china-quantum-supremacy-2025 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> May 1, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MIT Technology Review </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.technologyreview.com/2025/04/28/china-ai-governance-framework/ </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 28, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bloomberg </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.bloomberg.com/news/articles/2025-04-29/china-pledges-120-billion-for-chip-self-sufficiency-amid-tech-war </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nature </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01300-1 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South China Morning Post </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3299425/china-expands-global-tech-talent-recruitment-drive </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 28, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Caixin Global </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.caixinglobal.com/2025-04-30/china-ai-chip-manufacturers-report-breakthrough-in-gpu-alternatives-101956284.html </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Reuters </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.reuters.com/technology/china-eu-launch-new-climate-technology-partnership-2025-04-26/ </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 26, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> World Economic Forum </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://www.weforum.org/agenda/2025/04/china-innovation-global-cooperation/ </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> People's Daily </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://en.people.cn/n3/2025/0430/c90000-20065431.html </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Science and Technology Daily </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://www.stdaily.com/English/Science/index.shtml </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> 2025-04-29 </t>
         </is>
       </c>
     </row>
@@ -1622,11 +1452,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Five Most Impactful News Summaries:
-1. China's National Science and Technology Innovation Strategy (2025-2030): The Ministry of Science and Technology unveiled a comprehensive five-year strategy for innovation-driven development, targeting R&amp;D investment of 3.5% of GDP by 2030. The plan emphasizes technological self-reliance in critical sectors including semiconductors, quantum computing, and AI, introducing new funding mechanisms and streamlined approval processes for high-priority projects. This represents China's most ambitious innovation roadmap to date, with clear implications for global technology competition.
-2. Quantum Communication Network Completion: China announced the completion of a major quantum communication network spanning Beijing, Shanghai, and Hong Kong. This infrastructure employs quantum key distribution technology that is theoretically immune to traditional hacking methods and represents China's continued leadership in practical quantum technology applications. The network can support ultra-secure government and financial communications, with planned international extensions to Belt and Road Initiative partner countries in 2026-2027.
-3. Digital Economy Advancement Plan: The State Council published a comprehensive digital economy development plan targeting 45% digital economy contribution to GDP by 2030, up from 38.6% currently. The initiative introduces tax incentives for digital infrastructure investments, streamlines regulatory requirements for digital startups, and establishes five new digital economy pilot zones. The plan demonstrates China's strategic prioritization of digital transformation across all economic sectors.
-4. $15 Billion Semiconductor Packaging Fund: China's National Integrated Circuit Industry Investment Fund announced $15 billion dedicated to advanced semiconductor packaging technologies, including 2.5D and 3D packaging, chiplet integration, and advanced materials research. This targeted investment addresses specific bottlenecks in China's semiconductor supply chain while attempting to reduce dependencies on foreign technologies amid ongoing tech restrictions.
-5. Revolutionary Gene Therapy Approval: China's National Medical Products Administration approved a groundbreaking CRISPR-based gene therapy for beta-thalassemia that enables a one-time treatment for the genetic blood disorder. Clinical trials showed 95% of patients achieving transfusion independence. The approval represents China's growing capabilities in advanced biological therapies and establishes a regulatory pathway for similar treatments in development.</t>
+1. China's Innovation-Driven Development Strategy 2025-2035: The Chinese State Council has released a comprehensive ten-year innovation strategy that prioritizes technological self-reliance and indigenous innovation capabilities in critical sectors including semiconductors, advanced materials, and artificial intelligence. The strategy introduces a "2+X" framework focusing on core technologies and supporting ecosystem development, with targets to increase R&amp;D spending to 3% of GDP by 2030. This represents China's most comprehensive science and technology roadmap to date and directly addresses current challenges in accessing certain foreign technologies.
+2. National Artificial Intelligence Laboratory Network: China has established a national AI laboratory network comprising 15 specialized facilities focused on critical infrastructure protection and implementing the country's recently released ethical guidelines for AI. This initiative, falling under China's 14th Five-Year Plan for AI development, represents a significant organizational milestone in China's AI ecosystem, balancing innovation with security and ethical governance considerations. The network will coordinate research across multiple domains including healthcare, transportation, finance, and energy systems.
+3. New Quality Productivity Manufacturing Initiative: The National Development and Reform Commission has announced a $150 billion initiative to establish 25 "New Quality Productivity" manufacturing hubs across China. This massive investment aims to upgrade China's industrial base with advanced digital manufacturing capabilities, smart factories, and integrated supply chains. Focusing initially on semiconductors, new energy vehicles, aerospace, and biotechnology, the program is expected to create 1.2 million high-skilled jobs and significantly advance China's position in high-value manufacturing.
+4. Quantum Communication Network Expansion: Chinese researchers have achieved a major breakthrough by extending their secure quantum communication network to over 100 cities nationwide, demonstrating "quantum advantage" in secure communications using entangled photons. This represents the world's largest functional quantum communication infrastructure, with plans to extend services to Southeast Asia through the Digital Silk Road initiative, potentially revolutionizing secure communications and giving China a significant lead in quantum technologies.
+5. Science and Technology Security Framework: China has introduced a comprehensive Science and Technology Security Framework with new export controls on AI chipsets and quantum technologies. The policy reflects growing concerns about technology containment strategies by Western nations while emphasizing the protection of critical indigenous innovations. This framework signals China's more assertive stance on technology sovereignty while maintaining its "fair and reciprocal" approach to international technology cooperation.</t>
         </is>
       </c>
     </row>
@@ -1641,47 +1471,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Technology transfer</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Transformation of scientific and technological achievements</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1692,7 +1489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,17 +1542,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semiconductor packaging</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Semiconductor packaging</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1765,7 +1562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Transformation of scientific and technological achievements</t>
+          <t>Science and technology innovation policy</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1775,17 +1572,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Technology transfer</t>
+          <t>Strategic emerging industries</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>National innovation system</t>
+          <t>Hydrogen energy storage</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1795,7 +1592,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hydrogen energy storage</t>
+          <t>Science and technology system reform</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1805,7 +1602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Quantum computing cloud platform</t>
+          <t>Industry-university-research cooperation</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1815,7 +1612,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smart city</t>
+          <t>Quantum computing cloud platform</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1825,10 +1622,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gene therapy</t>
+          <t>High-end equipment manufacturing</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Talent introduction policy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Science and technology cooperation agreement</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
